--- a/6.source/indice_sensibilite_responsabilité.xlsx
+++ b/6.source/indice_sensibilite_responsabilité.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\6.source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\6.source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF75422C-59D6-4D47-93FD-AC4CC3957D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5926955-7BED-4600-86B3-F81334594167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{360A2066-F7FA-48DC-912B-8FAA4D72E7C6}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{360A2066-F7FA-48DC-912B-8FAA4D72E7C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>nom_fr</t>
   </si>
@@ -156,12 +156,6 @@
     <t>Labbes (pomarins et parasites)</t>
   </si>
   <si>
-    <t>Petits puffins</t>
-  </si>
-  <si>
-    <t>Puffins des Baléares</t>
-  </si>
-  <si>
     <t>Responsability breeding period /10 (OFB &amp; GISOM 2020)</t>
   </si>
   <si>
@@ -183,16 +177,10 @@
     <t>Calonectris diomedea</t>
   </si>
   <si>
-    <t>Puffin cendré (scopoli)</t>
-  </si>
-  <si>
     <t>Manx shearwater</t>
   </si>
   <si>
     <t>Puffinus puffinus</t>
-  </si>
-  <si>
-    <t>Puffin des Anglais (Puffin yelkouan)</t>
   </si>
   <si>
     <t>Noms anglais</t>
@@ -202,24 +190,6 @@
   </si>
   <si>
     <t>Noms scientifiques</t>
-  </si>
-  <si>
-    <t>flight_at_blade_height</t>
-  </si>
-  <si>
-    <t>flight_manoevrability</t>
-  </si>
-  <si>
-    <t>percetage_of_time_flying</t>
-  </si>
-  <si>
-    <t>nocturnal_flight_activity</t>
-  </si>
-  <si>
-    <t>disturbance_susceptibility</t>
-  </si>
-  <si>
-    <t>habitat_specialisation</t>
   </si>
   <si>
     <t>collision_sensibility</t>
@@ -237,10 +207,88 @@
     <t>final_sensi</t>
   </si>
   <si>
-    <t>responsability_breeding_period</t>
+    <t>Alt</t>
   </si>
   <si>
-    <t>responsability_winter</t>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Ptf</t>
+  </si>
+  <si>
+    <t>Noc</t>
+  </si>
+  <si>
+    <t>Dis</t>
+  </si>
+  <si>
+    <t>Spe</t>
+  </si>
+  <si>
+    <t>CS_summer</t>
+  </si>
+  <si>
+    <t>CS_winter</t>
+  </si>
+  <si>
+    <t>Puffin de scopoli (valeur puffin cendré)</t>
+  </si>
+  <si>
+    <t>Puffin yelkouan (valeur puffin des anglais)</t>
+  </si>
+  <si>
+    <t>Petit puffin</t>
+  </si>
+  <si>
+    <t>Puffin des Baléares</t>
+  </si>
+  <si>
+    <t>Noms pour R</t>
+  </si>
+  <si>
+    <t>nom_francais</t>
+  </si>
+  <si>
+    <t>fou_de_bassan</t>
+  </si>
+  <si>
+    <t>goeland_leucophee</t>
+  </si>
+  <si>
+    <t>macareux_moine</t>
+  </si>
+  <si>
+    <t>mouette_melanocephale</t>
+  </si>
+  <si>
+    <t>mouette_pygmee</t>
+  </si>
+  <si>
+    <t>mouette_rieuse</t>
+  </si>
+  <si>
+    <t>labbe</t>
+  </si>
+  <si>
+    <t>oceanite_tempete</t>
+  </si>
+  <si>
+    <t>petit_puffin</t>
+  </si>
+  <si>
+    <t>puffin_des_baleares</t>
+  </si>
+  <si>
+    <t>puffin_yelkouan</t>
+  </si>
+  <si>
+    <t>puffin_de_scopoli</t>
+  </si>
+  <si>
+    <t>sterne_caugek</t>
+  </si>
+  <si>
+    <t>sterne_pierregarin</t>
   </si>
 </sst>
 </file>
@@ -318,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -332,28 +380,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,7 +392,17 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -385,9 +423,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -425,7 +463,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -531,7 +569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -673,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,179 +719,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42137B93-271D-4118-BA2B-B3E4CC1451BB}">
-  <dimension ref="A1:AHO16"/>
+  <dimension ref="A1:AHP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="1" max="3" width="17.09765625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" customWidth="1"/>
+    <col min="11" max="11" width="19.296875" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:899" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:900" ht="129.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:900" ht="51.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="O2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:900" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6">
         <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:899" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:899" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6">
-        <v>3</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
       </c>
       <c r="G3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="6">
         <v>2</v>
       </c>
       <c r="I3" s="6">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="7">
-        <f>D3*((E3+F3+G3)/3)</f>
+      <c r="K3" s="7">
+        <f>E3*((F3+G3+H3)/3)</f>
         <v>32</v>
       </c>
-      <c r="K3" s="7">
-        <f>(J3/MAX(J:J))*10</f>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L10" si="0">(K3/MAX(K:K))*10</f>
         <v>3.9183673469387754</v>
       </c>
-      <c r="L3" s="6">
-        <f>H3*I3</f>
+      <c r="M3" s="6">
+        <f>I3*J3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="7">
-        <f>(L3/MAX(L:L))*10</f>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N10" si="1">(M3/MAX(M:M))*10</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="N3" s="8">
-        <f>AVERAGE(M3,K3)</f>
+      <c r="O3" s="8">
+        <f>AVERAGE(N3,L3)</f>
         <v>3.6258503401360542</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
         <v>1.8</v>
       </c>
-      <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
@@ -1736,60 +1782,63 @@
       <c r="AHM3" s="9"/>
       <c r="AHN3" s="9"/>
       <c r="AHO3" s="9"/>
+      <c r="AHP3" s="9"/>
     </row>
-    <row r="4" spans="1:899" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:900" ht="58.05" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14">
+      <c r="D4" s="11"/>
+      <c r="E4" s="6">
         <v>35</v>
       </c>
-      <c r="E4" s="14">
+      <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="G4" s="14">
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="14">
+      <c r="I4" s="6">
         <v>2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="15">
-        <f t="shared" ref="J4" si="0">D4*((E4+F4+G4)/3)</f>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4" si="2">E4*((F4+G4+H4)/3)</f>
         <v>81.666666666666671</v>
       </c>
-      <c r="K4" s="15">
-        <f>(J4/MAX(J:J))*10</f>
+      <c r="L4" s="7">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L4" s="14">
-        <f t="shared" ref="L4" si="1">H4*I4</f>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4" si="3">I4*J4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="15">
-        <f>(L4/MAX(L:L))*10</f>
+      <c r="N4" s="7">
+        <f t="shared" si="1"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="N4" s="16">
-        <f t="shared" ref="N4" si="2">AVERAGE(M4,K4)</f>
+      <c r="O4" s="8">
+        <f t="shared" ref="O4" si="4">AVERAGE(N4,L4)</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P4" s="9">
         <v>3.5</v>
       </c>
-      <c r="P4" s="9">
+      <c r="Q4" s="9">
         <v>2.8</v>
       </c>
-      <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
@@ -2672,60 +2721,63 @@
       <c r="AHM4" s="9"/>
       <c r="AHN4" s="9"/>
       <c r="AHO4" s="9"/>
+      <c r="AHP4" s="9"/>
     </row>
-    <row r="5" spans="1:899" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>0.5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>3</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="7">
-        <f t="shared" ref="J5:J9" si="3">D5*((E5+F5+G5)/3)</f>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K9" si="5">E5*((F5+G5+H5)/3)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="K5" s="7">
-        <f>(J5/MAX(J:J))*10</f>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
         <v>0.1020408163265306</v>
       </c>
-      <c r="L5" s="6">
-        <f t="shared" ref="L5:L9" si="4">H5*I5</f>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M9" si="6">I5*J5</f>
         <v>6</v>
       </c>
-      <c r="M5" s="7">
-        <f>(L5/MAX(L:L))*10</f>
+      <c r="N5" s="7">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N5" s="8">
-        <f t="shared" ref="N5:N9" si="5">AVERAGE(M5,K5)</f>
+      <c r="O5" s="8">
+        <f t="shared" ref="O5:O9" si="7">AVERAGE(N5,L5)</f>
         <v>5.0510204081632653</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9">
         <v>4.3</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
@@ -3608,25 +3660,26 @@
       <c r="AHM5" s="9"/>
       <c r="AHN5" s="9"/>
       <c r="AHO5" s="9"/>
+      <c r="AHP5" s="9"/>
     </row>
-    <row r="6" spans="1:899" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>25</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
       </c>
       <c r="G6" s="6">
         <v>2</v>
@@ -3637,33 +3690,35 @@
       <c r="I6" s="6">
         <v>2</v>
       </c>
-      <c r="J6" s="7">
-        <f t="shared" si="3"/>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="5"/>
         <v>41.666666666666671</v>
       </c>
-      <c r="K6" s="7">
-        <f>(J6/MAX(J:J))*10</f>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
         <v>5.1020408163265305</v>
       </c>
-      <c r="L6" s="6">
-        <f t="shared" si="4"/>
+      <c r="M6" s="6">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M6" s="7">
-        <f>(L6/MAX(L:L))*10</f>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="N6" s="8">
-        <f t="shared" si="5"/>
+      <c r="O6" s="8">
+        <f t="shared" si="7"/>
         <v>5.8843537414965983</v>
       </c>
-      <c r="O6" s="9">
+      <c r="P6" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P6" s="9">
+      <c r="Q6" s="9">
         <v>2.8</v>
       </c>
-      <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
@@ -4546,60 +4601,63 @@
       <c r="AHM6" s="9"/>
       <c r="AHN6" s="9"/>
       <c r="AHO6" s="9"/>
+      <c r="AHP6" s="9"/>
     </row>
-    <row r="7" spans="1:899" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>15</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="7">
-        <f t="shared" si="3"/>
+      <c r="K7" s="7">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="K7" s="7">
-        <f>(J7/MAX(J:J))*10</f>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
         <v>3.6734693877551017</v>
       </c>
-      <c r="L7" s="6">
-        <f t="shared" si="4"/>
+      <c r="M7" s="6">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M7" s="7">
-        <f>(L7/MAX(L:L))*10</f>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N7" s="8">
-        <f t="shared" si="5"/>
+      <c r="O7" s="8">
+        <f t="shared" si="7"/>
         <v>4.3367346938775508</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9">
         <v>5.5</v>
       </c>
-      <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -5482,28 +5540,29 @@
       <c r="AHM7" s="9"/>
       <c r="AHN7" s="9"/>
       <c r="AHO7" s="9"/>
+      <c r="AHP7" s="9"/>
     </row>
-    <row r="8" spans="1:899" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>20</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
         <v>2</v>
@@ -5511,33 +5570,35 @@
       <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="7">
-        <f t="shared" si="3"/>
+      <c r="J8" s="6">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="5"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="K8" s="7">
-        <f>(J8/MAX(J:J))*10</f>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
         <v>3.2653061224489792</v>
       </c>
-      <c r="L8" s="6">
-        <f t="shared" si="4"/>
+      <c r="M8" s="6">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M8" s="7">
-        <f>(L8/MAX(L:L))*10</f>
+      <c r="N8" s="7">
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="N8" s="8">
-        <f t="shared" si="5"/>
+      <c r="O8" s="8">
+        <f t="shared" si="7"/>
         <v>4.9659863945578229</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>3.3</v>
       </c>
-      <c r="P8" s="9">
+      <c r="Q8" s="9">
         <v>1.3</v>
       </c>
-      <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -6420,56 +6481,59 @@
       <c r="AHM8" s="9"/>
       <c r="AHN8" s="9"/>
       <c r="AHO8" s="9"/>
+      <c r="AHP8" s="9"/>
     </row>
-    <row r="9" spans="1:899" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="6">
+      <c r="B9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="7">
-        <f t="shared" si="3"/>
+      <c r="K9" s="7">
+        <f t="shared" si="5"/>
         <v>23.333333333333336</v>
       </c>
-      <c r="K9" s="7">
-        <f>(J9/MAX(J:J))*10</f>
+      <c r="L9" s="7">
+        <f t="shared" si="0"/>
         <v>2.8571428571428577</v>
       </c>
-      <c r="L9" s="6">
-        <f t="shared" si="4"/>
+      <c r="M9" s="6">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M9" s="7">
-        <f>(L9/MAX(L:L))*10</f>
+      <c r="N9" s="7">
+        <f t="shared" si="1"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="N9" s="8">
-        <f t="shared" si="5"/>
+      <c r="O9" s="8">
+        <f t="shared" si="7"/>
         <v>3.0952380952380953</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9">
         <v>3</v>
       </c>
-      <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -7352,62 +7416,65 @@
       <c r="AHM9" s="9"/>
       <c r="AHN9" s="9"/>
       <c r="AHO9" s="9"/>
+      <c r="AHP9" s="9"/>
     </row>
-    <row r="10" spans="1:899" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>3</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>4</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
-      <c r="J10" s="7">
-        <f>D10*((E10+F10+G10)/3)</f>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <f>E10*((F10+G10+H10)/3)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="K10" s="7">
-        <f>(J10/MAX(J:J))*10</f>
+      <c r="L10" s="7">
+        <f t="shared" si="0"/>
         <v>0.65306122448979587</v>
       </c>
-      <c r="L10" s="6">
-        <f>H10*I10</f>
+      <c r="M10" s="6">
+        <f>I10*J10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="7">
-        <f>(L10/MAX(L:L))*10</f>
+      <c r="N10" s="7">
+        <f t="shared" si="1"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="N10" s="8">
-        <f>AVERAGE(M10,K10)</f>
+      <c r="O10" s="8">
+        <f>AVERAGE(N10,L10)</f>
         <v>1.1598639455782311</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>7.8</v>
       </c>
-      <c r="P10" s="9">
+      <c r="Q10" s="9">
         <v>1</v>
       </c>
-      <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -8290,27 +8357,59 @@
       <c r="AHM10" s="9"/>
       <c r="AHN10" s="9"/>
       <c r="AHO10" s="9"/>
+      <c r="AHP10" s="9"/>
     </row>
-    <row r="11" spans="1:899" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="9"/>
+    <row r="11" spans="1:900" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <f>E11*((F11+G11+H11)/3)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f>(K11/MAX(K:K))*10</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f>I11*J11</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <f>(M11/MAX(M:M))*10</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="O11" s="8">
+        <f>AVERAGE(N11,L11)</f>
+        <v>0.83333333333333326</v>
+      </c>
       <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="9">
+        <v>7</v>
+      </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -9193,22 +9292,23 @@
       <c r="AHM11" s="9"/>
       <c r="AHN11" s="9"/>
       <c r="AHO11" s="9"/>
+      <c r="AHP11" s="9"/>
     </row>
-    <row r="12" spans="1:899" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>45</v>
+    <row r="12" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="6">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6">
         <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
@@ -9217,36 +9317,38 @@
         <v>3</v>
       </c>
       <c r="H12" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
       </c>
-      <c r="J12" s="7">
-        <f t="shared" ref="J12:J13" si="6">D12*((E12+F12+G12)/3)</f>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <f>E12*((F12+G12+H12)/3)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="7">
-        <f>(J12/MAX(J:J))*10</f>
+      <c r="L12" s="7">
+        <f>(K12/MAX(K:K))*10</f>
         <v>0</v>
       </c>
-      <c r="L12" s="6">
-        <f t="shared" ref="L12:L13" si="7">H12*I12</f>
+      <c r="M12" s="6">
+        <f>I12*J12</f>
         <v>1</v>
       </c>
-      <c r="M12" s="7">
-        <f>(L12/MAX(L:L))*10</f>
+      <c r="N12" s="7">
+        <f>(M12/MAX(M:M))*10</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="N12" s="8">
-        <f t="shared" ref="N12:N13" si="8">AVERAGE(M12,K12)</f>
+      <c r="O12" s="8">
+        <f>AVERAGE(N12,L12)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9">
         <v>7</v>
       </c>
-      <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -10129,22 +10231,23 @@
       <c r="AHM12" s="9"/>
       <c r="AHN12" s="9"/>
       <c r="AHO12" s="9"/>
+      <c r="AHP12" s="9"/>
     </row>
-    <row r="13" spans="1:899" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>50</v>
+    <row r="13" spans="1:900" ht="43.55" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="6">
         <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>3</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
@@ -10153,38 +10256,40 @@
         <v>3</v>
       </c>
       <c r="H13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
       </c>
-      <c r="J13" s="7">
-        <f t="shared" si="6"/>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" ref="K13" si="8">E13*((F13+G13+H13)/3)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="7">
-        <f>(J13/MAX(J:J))*10</f>
+      <c r="L13" s="7">
+        <f>(K13/MAX(K:K))*10</f>
         <v>0</v>
       </c>
-      <c r="L13" s="6">
-        <f t="shared" si="7"/>
+      <c r="M13" s="6">
+        <f t="shared" ref="M13" si="9">I13*J13</f>
         <v>1</v>
       </c>
-      <c r="M13" s="7">
-        <f>(L13/MAX(L:L))*10</f>
+      <c r="N13" s="7">
+        <f>(M13/MAX(M:M))*10</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="N13" s="8">
-        <f t="shared" si="8"/>
+      <c r="O13" s="8">
+        <f t="shared" ref="O13" si="10">AVERAGE(N13,L13)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O13" s="9">
+      <c r="P13" s="9">
         <v>6.5</v>
       </c>
-      <c r="P13" s="9">
+      <c r="Q13" s="9">
         <v>5.5</v>
       </c>
-      <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -11067,22 +11172,23 @@
       <c r="AHM13" s="9"/>
       <c r="AHN13" s="9"/>
       <c r="AHO13" s="9"/>
+      <c r="AHP13" s="9"/>
     </row>
-    <row r="14" spans="1:899" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>47</v>
+    <row r="14" spans="1:900" ht="43.55" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="6">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6">
         <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
       </c>
       <c r="F14" s="6">
         <v>3</v>
@@ -11091,38 +11197,40 @@
         <v>3</v>
       </c>
       <c r="H14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="7">
-        <f t="shared" ref="J14" si="9">D14*((E14+F14+G14)/3)</f>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" ref="K14" si="11">E14*((F14+G14+H14)/3)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="7">
-        <f>(J14/MAX(J:J))*10</f>
+      <c r="L14" s="7">
+        <f>(K14/MAX(K:K))*10</f>
         <v>0</v>
       </c>
-      <c r="L14" s="6">
-        <f t="shared" ref="L14" si="10">H14*I14</f>
+      <c r="M14" s="6">
+        <f t="shared" ref="M14" si="12">I14*J14</f>
         <v>1</v>
       </c>
-      <c r="M14" s="7">
-        <f>(L14/MAX(L:L))*10</f>
+      <c r="N14" s="7">
+        <f>(M14/MAX(M:M))*10</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="N14" s="8">
-        <f t="shared" ref="N14" si="11">AVERAGE(M14,K14)</f>
+      <c r="O14" s="8">
+        <f t="shared" ref="O14" si="13">AVERAGE(N14,L14)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>5.3</v>
       </c>
-      <c r="P14" s="9">
+      <c r="Q14" s="9">
         <v>4.3</v>
       </c>
-      <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -12005,60 +12113,63 @@
       <c r="AHM14" s="9"/>
       <c r="AHN14" s="9"/>
       <c r="AHO14" s="9"/>
+      <c r="AHP14" s="9"/>
     </row>
-    <row r="15" spans="1:899" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>10</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>5</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>3</v>
       </c>
-      <c r="J15" s="7">
-        <f>D15*((E15+F15+G15)/3)</f>
+      <c r="K15" s="7">
+        <f>E15*((F15+G15+H15)/3)</f>
         <v>23.333333333333336</v>
       </c>
-      <c r="K15" s="7">
-        <f>(J15/MAX(J:J))*10</f>
+      <c r="L15" s="7">
+        <f>(K15/MAX(K:K))*10</f>
         <v>2.8571428571428577</v>
       </c>
-      <c r="L15" s="6">
-        <f>H15*I15</f>
+      <c r="M15" s="6">
+        <f>I15*J15</f>
         <v>6</v>
       </c>
-      <c r="M15" s="7">
-        <f>(L15/MAX(L:L))*10</f>
+      <c r="N15" s="7">
+        <f>(M15/MAX(M:M))*10</f>
         <v>10</v>
       </c>
-      <c r="N15" s="8">
-        <f>AVERAGE(M15,K15)</f>
+      <c r="O15" s="8">
+        <f>AVERAGE(N15,L15)</f>
         <v>6.4285714285714288</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="9">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="9">
         <v>2</v>
       </c>
-      <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -12941,59 +13052,62 @@
       <c r="AHM15" s="9"/>
       <c r="AHN15" s="9"/>
       <c r="AHO15" s="9"/>
+      <c r="AHP15" s="9"/>
     </row>
-    <row r="16" spans="1:899" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>10</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>5</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="7">
-        <f>D16*((E16+F16+G16)/3)</f>
+      <c r="K16" s="7">
+        <f>E16*((F16+G16+H16)/3)</f>
         <v>23.333333333333336</v>
       </c>
-      <c r="K16" s="7">
-        <f>(J16/MAX(J:J))*10</f>
+      <c r="L16" s="7">
+        <f>(K16/MAX(K:K))*10</f>
         <v>2.8571428571428577</v>
       </c>
-      <c r="L16" s="6">
-        <f>H16*I16</f>
+      <c r="M16" s="6">
+        <f>I16*J16</f>
         <v>6</v>
       </c>
-      <c r="M16" s="7">
-        <f>(L16/MAX(L:L))*10</f>
+      <c r="N16" s="7">
+        <f>(M16/MAX(M:M))*10</f>
         <v>10</v>
       </c>
-      <c r="N16" s="8">
-        <f>AVERAGE(M16,K16)</f>
+      <c r="O16" s="8">
+        <f>AVERAGE(N16,L16)</f>
         <v>6.4285714285714288</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>1.5</v>
       </c>
-      <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
@@ -13877,6 +13991,7 @@
       <c r="AHM16" s="9"/>
       <c r="AHN16" s="9"/>
       <c r="AHO16" s="9"/>
+      <c r="AHP16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6.source/indice_sensibilite_responsabilité.xlsx
+++ b/6.source/indice_sensibilite_responsabilité.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\6.source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5926955-7BED-4600-86B3-F81334594167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B9015-28A2-4E6D-8DB9-A29C162C8F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{360A2066-F7FA-48DC-912B-8FAA4D72E7C6}"/>
   </bookViews>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42137B93-271D-4118-BA2B-B3E4CC1451BB}">
   <dimension ref="A1:AHP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="64" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="7">
-        <f>(K11/MAX(K:K))*10</f>
+        <f t="shared" ref="L11:L16" si="8">(K11/MAX(K:K))*10</f>
         <v>0</v>
       </c>
       <c r="M11" s="6">
@@ -8399,14 +8399,16 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <f>(M11/MAX(M:M))*10</f>
+        <f t="shared" ref="N11:N16" si="9">(M11/MAX(M:M))*10</f>
         <v>1.6666666666666665</v>
       </c>
       <c r="O11" s="8">
         <f>AVERAGE(N11,L11)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="P11" s="9"/>
+      <c r="P11" s="9">
+        <v>6.5</v>
+      </c>
       <c r="Q11" s="9">
         <v>7</v>
       </c>
@@ -9330,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="7">
-        <f>(K12/MAX(K:K))*10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M12" s="6">
@@ -9338,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <f>(M12/MAX(M:M))*10</f>
+        <f t="shared" si="9"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="O12" s="8">
@@ -10265,23 +10267,23 @@
         <v>1</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" ref="K13" si="8">E13*((F13+G13+H13)/3)</f>
+        <f t="shared" ref="K13" si="10">E13*((F13+G13+H13)/3)</f>
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <f>(K13/MAX(K:K))*10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" ref="M13" si="9">I13*J13</f>
+        <f t="shared" ref="M13" si="11">I13*J13</f>
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <f>(M13/MAX(M:M))*10</f>
+        <f t="shared" si="9"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" ref="O13" si="10">AVERAGE(N13,L13)</f>
+        <f t="shared" ref="O13" si="12">AVERAGE(N13,L13)</f>
         <v>0.83333333333333326</v>
       </c>
       <c r="P13" s="9">
@@ -11206,23 +11208,23 @@
         <v>1</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" ref="K14" si="11">E14*((F14+G14+H14)/3)</f>
+        <f t="shared" ref="K14" si="13">E14*((F14+G14+H14)/3)</f>
         <v>0</v>
       </c>
       <c r="L14" s="7">
-        <f>(K14/MAX(K:K))*10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" ref="M14" si="12">I14*J14</f>
+        <f t="shared" ref="M14" si="14">I14*J14</f>
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <f>(M14/MAX(M:M))*10</f>
+        <f t="shared" si="9"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" ref="O14" si="13">AVERAGE(N14,L14)</f>
+        <f t="shared" ref="O14" si="15">AVERAGE(N14,L14)</f>
         <v>0.83333333333333326</v>
       </c>
       <c r="P14" s="9">
@@ -12151,7 +12153,7 @@
         <v>23.333333333333336</v>
       </c>
       <c r="L15" s="7">
-        <f>(K15/MAX(K:K))*10</f>
+        <f t="shared" si="8"/>
         <v>2.8571428571428577</v>
       </c>
       <c r="M15" s="6">
@@ -12159,14 +12161,16 @@
         <v>6</v>
       </c>
       <c r="N15" s="7">
-        <f>(M15/MAX(M:M))*10</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O15" s="8">
         <f>AVERAGE(N15,L15)</f>
         <v>6.4285714285714288</v>
       </c>
-      <c r="P15" s="5"/>
+      <c r="P15" s="5">
+        <v>2.5</v>
+      </c>
       <c r="Q15" s="9">
         <v>2</v>
       </c>
@@ -13090,7 +13094,7 @@
         <v>23.333333333333336</v>
       </c>
       <c r="L16" s="7">
-        <f>(K16/MAX(K:K))*10</f>
+        <f t="shared" si="8"/>
         <v>2.8571428571428577</v>
       </c>
       <c r="M16" s="6">
@@ -13098,7 +13102,7 @@
         <v>6</v>
       </c>
       <c r="N16" s="7">
-        <f>(M16/MAX(M:M))*10</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O16" s="8">

--- a/6.source/indice_sensibilite_responsabilité.xlsx
+++ b/6.source/indice_sensibilite_responsabilité.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\6.source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B9015-28A2-4E6D-8DB9-A29C162C8F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1310EEA4-B18C-424F-A5AF-232954AAAF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{360A2066-F7FA-48DC-912B-8FAA4D72E7C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{360A2066-F7FA-48DC-912B-8FAA4D72E7C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -721,25 +721,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42137B93-271D-4118-BA2B-B3E4CC1451BB}">
   <dimension ref="A1:AHP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="64" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="17.09765625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" customWidth="1"/>
+    <col min="1" max="3" width="17.08984375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
-    <col min="9" max="9" width="22.69921875" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" customWidth="1"/>
-    <col min="11" max="11" width="19.296875" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="18.3984375" customWidth="1"/>
+    <col min="14" max="14" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:900" ht="129.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:900" ht="129.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -792,7 +792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:900" ht="51.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:900" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>70</v>
       </c>
@@ -845,7 +845,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:900" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:900" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="AHO3" s="9"/>
       <c r="AHP3" s="9"/>
     </row>
-    <row r="4" spans="1:900" ht="58.05" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:900" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="AHO4" s="9"/>
       <c r="AHP4" s="9"/>
     </row>
-    <row r="5" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:900" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="AHO5" s="9"/>
       <c r="AHP5" s="9"/>
     </row>
-    <row r="6" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:900" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="AHO6" s="9"/>
       <c r="AHP6" s="9"/>
     </row>
-    <row r="7" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:900" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="AHO7" s="9"/>
       <c r="AHP7" s="9"/>
     </row>
-    <row r="8" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:900" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="AHO8" s="9"/>
       <c r="AHP8" s="9"/>
     </row>
-    <row r="9" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:900" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="AHO9" s="9"/>
       <c r="AHP9" s="9"/>
     </row>
-    <row r="10" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:900" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
@@ -7472,9 +7472,7 @@
       <c r="P10" s="9">
         <v>7.8</v>
       </c>
-      <c r="Q10" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -8359,7 +8357,7 @@
       <c r="AHO10" s="9"/>
       <c r="AHP10" s="9"/>
     </row>
-    <row r="11" spans="1:900" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:900" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>67</v>
       </c>
@@ -9296,7 +9294,7 @@
       <c r="AHO11" s="9"/>
       <c r="AHP11" s="9"/>
     </row>
-    <row r="12" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:900" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
@@ -10235,7 +10233,7 @@
       <c r="AHO12" s="9"/>
       <c r="AHP12" s="9"/>
     </row>
-    <row r="13" spans="1:900" ht="43.55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:900" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>66</v>
       </c>
@@ -11176,7 +11174,7 @@
       <c r="AHO13" s="9"/>
       <c r="AHP13" s="9"/>
     </row>
-    <row r="14" spans="1:900" ht="43.55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:900" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>65</v>
       </c>
@@ -11230,9 +11228,7 @@
       <c r="P14" s="9">
         <v>5.3</v>
       </c>
-      <c r="Q14" s="9">
-        <v>4.3</v>
-      </c>
+      <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -12117,7 +12113,7 @@
       <c r="AHO14" s="9"/>
       <c r="AHP14" s="9"/>
     </row>
-    <row r="15" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:900" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>32</v>
       </c>
@@ -13058,7 +13054,7 @@
       <c r="AHO15" s="9"/>
       <c r="AHP15" s="9"/>
     </row>
-    <row r="16" spans="1:900" ht="29.05" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:900" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
